--- a/CostMatrix.xlsx
+++ b/CostMatrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7260,3142 +7256,6 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
-      <c r="B72">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="C72">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="D72">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="E72">
-        <v>7</v>
-      </c>
-      <c r="F72">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="G72">
-        <v>8.6023252670426196</v>
-      </c>
-      <c r="H72">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="I72">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="J72">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="K72">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="L72">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="M72">
-        <v>5</v>
-      </c>
-      <c r="N72">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="O72">
-        <v>2</v>
-      </c>
-      <c r="P72">
-        <v>4</v>
-      </c>
-      <c r="Q72">
-        <v>5</v>
-      </c>
-      <c r="R72">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="S72">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="T72">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="U72">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="V72">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="W72">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="X72">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="Y72">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="Z72">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="AA72">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="AB72">
-        <v>1</v>
-      </c>
-      <c r="AC72">
-        <v>4</v>
-      </c>
-      <c r="AD72">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="AE72">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AF72">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AG72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34">
-      <c r="B73">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="C73">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="D73">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="E73">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="F73">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="G73">
-        <v>6</v>
-      </c>
-      <c r="H73">
-        <v>5</v>
-      </c>
-      <c r="I73">
-        <v>7</v>
-      </c>
-      <c r="J73">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="K73">
-        <v>6</v>
-      </c>
-      <c r="L73">
-        <v>7.6157731058638998</v>
-      </c>
-      <c r="M73">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="N73">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="O73">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="P73">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="R73">
-        <v>8.6023252670426196</v>
-      </c>
-      <c r="S73">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="T73">
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="U73">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="V73">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="W73">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="X73">
-        <v>1</v>
-      </c>
-      <c r="Y73">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="Z73">
-        <v>2</v>
-      </c>
-      <c r="AA73">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="AB73">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="AC73">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="AD73">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="AE73">
-        <v>4</v>
-      </c>
-      <c r="AF73">
-        <v>5</v>
-      </c>
-      <c r="AG73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34">
-      <c r="B74">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="F74">
-        <v>7.6157731058638998</v>
-      </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="J74">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="K74">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="L74">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="M74">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="N74">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="O74">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="P74">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="Q74">
-        <v>5</v>
-      </c>
-      <c r="R74">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="S74">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="T74">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="U74">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="V74">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="W74">
-        <v>7</v>
-      </c>
-      <c r="X74">
-        <v>3</v>
-      </c>
-      <c r="Y74">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="Z74">
-        <v>2</v>
-      </c>
-      <c r="AA74">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AB74">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="AC74">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="AD74">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AE74">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="AF74">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AG74">
-        <v>6.4031242374328396</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34">
-      <c r="B75">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="C75">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="D75">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="E75">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="F75">
-        <v>5</v>
-      </c>
-      <c r="G75">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="H75">
-        <v>4</v>
-      </c>
-      <c r="I75">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="J75">
-        <v>3</v>
-      </c>
-      <c r="K75">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="L75">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="M75">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-      <c r="O75">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="P75">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="Q75">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="R75">
-        <v>3</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
-      <c r="T75">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="U75">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="V75">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="W75">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="X75">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="Y75">
-        <v>5</v>
-      </c>
-      <c r="Z75">
-        <v>5</v>
-      </c>
-      <c r="AA75">
-        <v>1</v>
-      </c>
-      <c r="AB75">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="AC75">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AD75">
-        <v>2</v>
-      </c>
-      <c r="AE75">
-        <v>5</v>
-      </c>
-      <c r="AF75">
-        <v>2</v>
-      </c>
-      <c r="AG75">
-        <v>5.0990195135927801</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34">
-      <c r="B76">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="C76">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="F76">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="G76">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="H76">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="I76">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="J76">
-        <v>3</v>
-      </c>
-      <c r="K76">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="L76">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="M76">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-      <c r="O76">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="P76">
-        <v>3</v>
-      </c>
-      <c r="Q76">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="R76">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="S76">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="T76">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="U76">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="V76">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="W76">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="X76">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="Y76">
-        <v>1</v>
-      </c>
-      <c r="Z76">
-        <v>1</v>
-      </c>
-      <c r="AA76">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AB76">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="AC76">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AD76">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AE76">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AF76">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AG76">
-        <v>4.4721359549995796</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34">
-      <c r="B77">
-        <v>5</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="F77">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="G77">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="H77">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="I77">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="J77">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="K77">
-        <v>4</v>
-      </c>
-      <c r="L77">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="M77">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="N77">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="O77">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="P77">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="Q77">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="R77">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="S77">
-        <v>1</v>
-      </c>
-      <c r="T77">
-        <v>2</v>
-      </c>
-      <c r="U77">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="V77">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="W77">
-        <v>1</v>
-      </c>
-      <c r="X77">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="Y77">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="Z77">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="AA77">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AB77">
-        <v>5</v>
-      </c>
-      <c r="AC77">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AD77">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AE77">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AF77">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AG77">
-        <v>4.1231056256176597</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34">
-      <c r="B78">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="C78">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="D78">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="E78">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="F78">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="G78">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="H78">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="I78">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="J78">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="K78">
-        <v>3</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>4</v>
-      </c>
-      <c r="N78">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="O78">
-        <v>5</v>
-      </c>
-      <c r="P78">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="Q78">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="R78">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
-      <c r="T78">
-        <v>3</v>
-      </c>
-      <c r="U78">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="V78">
-        <v>3</v>
-      </c>
-      <c r="W78">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="X78">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="Y78">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="Z78">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="AA78">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AB78">
-        <v>4</v>
-      </c>
-      <c r="AC78">
-        <v>1</v>
-      </c>
-      <c r="AD78">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AE78">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AF78">
-        <v>2</v>
-      </c>
-      <c r="AG78">
-        <v>3.1622776601683702</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34">
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="D79">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="E79">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-      <c r="G79">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="H79">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="I79">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="J79">
-        <v>5</v>
-      </c>
-      <c r="K79">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="L79">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="M79">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="P79">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="Q79">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="R79">
-        <v>5</v>
-      </c>
-      <c r="S79">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="T79">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="U79">
-        <v>1</v>
-      </c>
-      <c r="V79">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="W79">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="X79">
-        <v>4</v>
-      </c>
-      <c r="Y79">
-        <v>3</v>
-      </c>
-      <c r="Z79">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AA79">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AB79">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="AC79">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AD79">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AE79">
-        <v>1</v>
-      </c>
-      <c r="AF79">
-        <v>2</v>
-      </c>
-      <c r="AG79">
-        <v>1.41421356237309</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34">
-      <c r="B80">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="C80">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="D80">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="E80">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="F80">
-        <v>7.2801098892805101</v>
-      </c>
-      <c r="G80">
-        <v>3</v>
-      </c>
-      <c r="H80">
-        <v>2</v>
-      </c>
-      <c r="I80">
-        <v>7.6157731058638998</v>
-      </c>
-      <c r="J80">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="K80">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="L80">
-        <v>7</v>
-      </c>
-      <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="N80">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="O80">
-        <v>5</v>
-      </c>
-      <c r="P80">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="Q80">
-        <v>4</v>
-      </c>
-      <c r="R80">
-        <v>7.2801098892805101</v>
-      </c>
-      <c r="S80">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="T80">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="U80">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="V80">
-        <v>3</v>
-      </c>
-      <c r="W80">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="X80">
-        <v>2</v>
-      </c>
-      <c r="Y80">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="Z80">
-        <v>1</v>
-      </c>
-      <c r="AA80">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AB80">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="AC80">
-        <v>5</v>
-      </c>
-      <c r="AD80">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="AE80">
-        <v>5</v>
-      </c>
-      <c r="AF80">
-        <v>4</v>
-      </c>
-      <c r="AG80">
-        <v>5.8309518948452999</v>
-      </c>
-    </row>
-    <row r="81" spans="2:33">
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="D81">
-        <v>5</v>
-      </c>
-      <c r="E81">
-        <v>5</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="H81">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="I81">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="J81">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="K81">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="L81">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="M81">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="N81">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="O81">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="P81">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="Q81">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="R81">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="S81">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="T81">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="U81">
-        <v>2</v>
-      </c>
-      <c r="V81">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="W81">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="X81">
-        <v>5</v>
-      </c>
-      <c r="Y81">
-        <v>4</v>
-      </c>
-      <c r="Z81">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="AA81">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AB81">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AC81">
-        <v>2</v>
-      </c>
-      <c r="AD81">
-        <v>5</v>
-      </c>
-      <c r="AE81">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AF81">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AG81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:33">
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="D82">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="E82">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="F82">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="G82">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="H82">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="I82">
-        <v>5</v>
-      </c>
-      <c r="J82">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="K82">
-        <v>4</v>
-      </c>
-      <c r="L82">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="M82">
-        <v>3</v>
-      </c>
-      <c r="N82">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="O82">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="P82">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="Q82">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="R82">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="S82">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="T82">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="U82">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="V82">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="W82">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="X82">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="Y82">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="Z82">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="AA82">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="AB82">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AC82">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="AD82">
-        <v>5</v>
-      </c>
-      <c r="AE82">
-        <v>2</v>
-      </c>
-      <c r="AF82">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AG82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="2:33">
-      <c r="B83">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="C83">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="D83">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="E83">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="F83">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="G83">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="H83">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="I83">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="J83">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="M83">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="P83">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="Q83">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="R83">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
-      <c r="T83">
-        <v>4</v>
-      </c>
-      <c r="U83">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="V83">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="W83">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="X83">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="Y83">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="Z83">
-        <v>6</v>
-      </c>
-      <c r="AA83">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="AB83">
-        <v>3</v>
-      </c>
-      <c r="AC83">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AD83">
-        <v>5</v>
-      </c>
-      <c r="AE83">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="AF83">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AG83">
-        <v>2.2360679774997898</v>
-      </c>
-    </row>
-    <row r="84" spans="2:33">
-      <c r="B84">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="F84">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="G84">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="H84">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="I84">
-        <v>5</v>
-      </c>
-      <c r="J84">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="K84">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="L84">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="M84">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="N84">
-        <v>2</v>
-      </c>
-      <c r="O84">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="P84">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="Q84">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="R84">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="S84">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="T84">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="U84">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="V84">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="W84">
-        <v>3</v>
-      </c>
-      <c r="X84">
-        <v>5</v>
-      </c>
-      <c r="Y84">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="Z84">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AA84">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AB84">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="AC84">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AD84">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AE84">
-        <v>4</v>
-      </c>
-      <c r="AF84">
-        <v>1</v>
-      </c>
-      <c r="AG84">
-        <v>4.1231056256176597</v>
-      </c>
-    </row>
-    <row r="85" spans="2:33">
-      <c r="B85">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="C85">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="D85">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="G85">
-        <v>4</v>
-      </c>
-      <c r="H85">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="I85">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="J85">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="K85">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="L85">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="M85">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="N85">
-        <v>4</v>
-      </c>
-      <c r="O85">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="P85">
-        <v>7.6157731058638998</v>
-      </c>
-      <c r="Q85">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="R85">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="S85">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="T85">
-        <v>2</v>
-      </c>
-      <c r="U85">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="V85">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="W85">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="X85">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="Y85">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="Z85">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="AA85">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AB85">
-        <v>7.2801098892805101</v>
-      </c>
-      <c r="AC85">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AD85">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AE85">
-        <v>6</v>
-      </c>
-      <c r="AF85">
-        <v>3</v>
-      </c>
-      <c r="AG85">
-        <v>6.0827625302982096</v>
-      </c>
-    </row>
-    <row r="86" spans="2:33">
-      <c r="B86">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="C86">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="D86">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="E86">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="F86">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="G86">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="H86">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="I86">
-        <v>4</v>
-      </c>
-      <c r="J86">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="K86">
-        <v>3</v>
-      </c>
-      <c r="L86">
-        <v>5</v>
-      </c>
-      <c r="M86">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="N86">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
-      <c r="P86">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="Q86">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="R86">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="S86">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="T86">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="U86">
-        <v>1</v>
-      </c>
-      <c r="V86">
-        <v>3</v>
-      </c>
-      <c r="W86">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="X86">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="Y86">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="Z86">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AA86">
-        <v>5</v>
-      </c>
-      <c r="AB86">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AC86">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AD86">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="AE86">
-        <v>1</v>
-      </c>
-      <c r="AF86">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AG86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="2:33">
-      <c r="B87">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="C87">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="D87">
-        <v>4</v>
-      </c>
-      <c r="E87">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="F87">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="G87">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="H87">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="I87">
-        <v>6</v>
-      </c>
-      <c r="J87">
-        <v>5</v>
-      </c>
-      <c r="K87">
-        <v>5</v>
-      </c>
-      <c r="L87">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="M87">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="N87">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="O87">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="R87">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="S87">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="T87">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="U87">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="V87">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="W87">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="X87">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="Y87">
-        <v>1</v>
-      </c>
-      <c r="Z87">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AA87">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="AB87">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="AC87">
-        <v>5</v>
-      </c>
-      <c r="AD87">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="AE87">
-        <v>3</v>
-      </c>
-      <c r="AF87">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="AG87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="2:33">
-      <c r="B88">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="C88">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>5</v>
-      </c>
-      <c r="F88">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="G88">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="H88">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="I88">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="J88">
-        <v>2</v>
-      </c>
-      <c r="K88">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="L88">
-        <v>6</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="O88">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="P88">
-        <v>4</v>
-      </c>
-      <c r="Q88">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="R88">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="S88">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="T88">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="U88">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="V88">
-        <v>2</v>
-      </c>
-      <c r="W88">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="X88">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="Y88">
-        <v>2</v>
-      </c>
-      <c r="Z88">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AA88">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="AB88">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="AC88">
-        <v>4</v>
-      </c>
-      <c r="AD88">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AE88">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="AF88">
-        <v>3</v>
-      </c>
-      <c r="AG88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="2:33">
-      <c r="B89">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="C89">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="D89">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="E89">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="F89">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="G89">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="H89">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="I89">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="J89">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="K89">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="L89">
-        <v>5</v>
-      </c>
-      <c r="M89">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="N89">
-        <v>3</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89">
-        <v>3</v>
-      </c>
-      <c r="Q89">
-        <v>4</v>
-      </c>
-      <c r="R89">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="S89">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="T89">
-        <v>7.2801098892805101</v>
-      </c>
-      <c r="U89">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="V89">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="W89">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="X89">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="Y89">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="Z89">
-        <v>5</v>
-      </c>
-      <c r="AA89">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="AB89">
-        <v>2</v>
-      </c>
-      <c r="AC89">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AD89">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="AE89">
-        <v>1</v>
-      </c>
-      <c r="AF89">
-        <v>4</v>
-      </c>
-      <c r="AG89">
-        <v>1.41421356237309</v>
-      </c>
-    </row>
-    <row r="90" spans="2:33">
-      <c r="B90">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="F90">
-        <v>5</v>
-      </c>
-      <c r="G90">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="H90">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="I90">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="J90">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="K90">
-        <v>5</v>
-      </c>
-      <c r="L90">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="M90">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="N90">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="O90">
-        <v>5</v>
-      </c>
-      <c r="P90">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="Q90">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="R90">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="S90">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="T90">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="U90">
-        <v>3</v>
-      </c>
-      <c r="V90">
-        <v>1</v>
-      </c>
-      <c r="W90">
-        <v>4</v>
-      </c>
-      <c r="X90">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="Y90">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="Z90">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AA90">
-        <v>1</v>
-      </c>
-      <c r="AB90">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="AC90">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AD90">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AE90">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AF90">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AG90">
-        <v>4.4721359549995796</v>
-      </c>
-    </row>
-    <row r="91" spans="2:33">
-      <c r="B91">
-        <v>5</v>
-      </c>
-      <c r="C91">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="D91">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="G91">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="H91">
-        <v>5</v>
-      </c>
-      <c r="I91">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="J91">
-        <v>4</v>
-      </c>
-      <c r="K91">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="L91">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="M91">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="N91">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="O91">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="P91">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="Q91">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="R91">
-        <v>2</v>
-      </c>
-      <c r="S91">
-        <v>1</v>
-      </c>
-      <c r="T91">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="U91">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="V91">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="W91">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="X91">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="Y91">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="Z91">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="AA91">
-        <v>2</v>
-      </c>
-      <c r="AB91">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="AC91">
-        <v>2</v>
-      </c>
-      <c r="AD91">
-        <v>3</v>
-      </c>
-      <c r="AE91">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="AF91">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AG91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="2:33">
-      <c r="B92">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="C92">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="D92">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="E92">
-        <v>2</v>
-      </c>
-      <c r="F92">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
-      <c r="H92">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="I92">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="J92">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="K92">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="L92">
-        <v>5</v>
-      </c>
-      <c r="M92">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="N92">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="O92">
-        <v>7</v>
-      </c>
-      <c r="P92">
-        <v>7.2801098892805101</v>
-      </c>
-      <c r="Q92">
-        <v>7.6157731058638998</v>
-      </c>
-      <c r="R92">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="S92">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="T92">
-        <v>3</v>
-      </c>
-      <c r="U92">
-        <v>5</v>
-      </c>
-      <c r="V92">
-        <v>3</v>
-      </c>
-      <c r="W92">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="X92">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="Y92">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="Z92">
-        <v>5</v>
-      </c>
-      <c r="AA92">
-        <v>1</v>
-      </c>
-      <c r="AB92">
-        <v>7.6157731058638998</v>
-      </c>
-      <c r="AC92">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AD92">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AE92">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="AF92">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AG92">
-        <v>6.3245553203367502</v>
-      </c>
-    </row>
-    <row r="93" spans="2:33">
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="C93">
-        <v>5</v>
-      </c>
-      <c r="D93">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="E93">
-        <v>7.6157731058638998</v>
-      </c>
-      <c r="F93">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="G93">
-        <v>7.2801098892805101</v>
-      </c>
-      <c r="H93">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="I93">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="J93">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="K93">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="L93">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="M93">
-        <v>4</v>
-      </c>
-      <c r="N93">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-      <c r="P93">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>2</v>
-      </c>
-      <c r="R93">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="S93">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="T93">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="U93">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="V93">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="W93">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="X93">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="Y93">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="Z93">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AA93">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="AB93">
-        <v>4</v>
-      </c>
-      <c r="AC93">
-        <v>5</v>
-      </c>
-      <c r="AD93">
-        <v>6</v>
-      </c>
-      <c r="AE93">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AF93">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AG93">
-        <v>3.1622776601683702</v>
-      </c>
-    </row>
-    <row r="94" spans="2:33">
-      <c r="B94">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="C94">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="D94">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="E94">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="F94">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="G94">
-        <v>5</v>
-      </c>
-      <c r="H94">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="I94">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="J94">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="K94">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="L94">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="M94">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94">
-        <v>3</v>
-      </c>
-      <c r="P94">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="Q94">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="R94">
-        <v>5</v>
-      </c>
-      <c r="S94">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="T94">
-        <v>5</v>
-      </c>
-      <c r="U94">
-        <v>1</v>
-      </c>
-      <c r="V94">
-        <v>1</v>
-      </c>
-      <c r="W94">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="X94">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="Y94">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="Z94">
-        <v>3</v>
-      </c>
-      <c r="AA94">
-        <v>3</v>
-      </c>
-      <c r="AB94">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="AC94">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AD94">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AE94">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AF94">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AG94">
-        <v>2.8284271247461898</v>
-      </c>
-    </row>
-    <row r="95" spans="2:33">
-      <c r="B95">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="C95">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95">
-        <v>4</v>
-      </c>
-      <c r="F95">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="I95">
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="L95">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="M95">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="N95">
-        <v>5</v>
-      </c>
-      <c r="O95">
-        <v>7.2801098892805101</v>
-      </c>
-      <c r="P95">
-        <v>7</v>
-      </c>
-      <c r="Q95">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="R95">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="S95">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="T95">
-        <v>5</v>
-      </c>
-      <c r="U95">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="V95">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="W95">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="X95">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="Y95">
-        <v>5</v>
-      </c>
-      <c r="Z95">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AA95">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AB95">
-        <v>8.6023252670426196</v>
-      </c>
-      <c r="AC95">
-        <v>5</v>
-      </c>
-      <c r="AD95">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AE95">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="AF95">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="AG95">
-        <v>7.2111025509279703</v>
-      </c>
-    </row>
-    <row r="96" spans="2:33">
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>5</v>
-      </c>
-      <c r="D96">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="E96">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="H96">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="I96">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="J96">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="M96">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="N96">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="O96">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="P96">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="Q96">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="R96">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="S96">
-        <v>4</v>
-      </c>
-      <c r="T96">
-        <v>5</v>
-      </c>
-      <c r="U96">
-        <v>3</v>
-      </c>
-      <c r="V96">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="W96">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="X96">
-        <v>6</v>
-      </c>
-      <c r="Y96">
-        <v>5</v>
-      </c>
-      <c r="Z96">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="AA96">
-        <v>5</v>
-      </c>
-      <c r="AB96">
-        <v>2</v>
-      </c>
-      <c r="AC96">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AD96">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="AE96">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AF96">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="AG96">
-        <v>1.41421356237309</v>
-      </c>
-    </row>
-    <row r="97" spans="2:33">
-      <c r="B97">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="C97">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="D97">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="E97">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="H97">
-        <v>7.6157731058638998</v>
-      </c>
-      <c r="I97">
-        <v>2</v>
-      </c>
-      <c r="J97">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="K97">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="N97">
-        <v>3</v>
-      </c>
-      <c r="O97">
-        <v>5</v>
-      </c>
-      <c r="P97">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="Q97">
-        <v>7.6157731058638998</v>
-      </c>
-      <c r="R97">
-        <v>3</v>
-      </c>
-      <c r="S97">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="T97">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="U97">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="V97">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="W97">
-        <v>2</v>
-      </c>
-      <c r="X97">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="Y97">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="Z97">
-        <v>7</v>
-      </c>
-      <c r="AA97">
-        <v>5</v>
-      </c>
-      <c r="AB97">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AC97">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AD97">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="AE97">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AF97">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AG97">
-        <v>2.8284271247461898</v>
-      </c>
-    </row>
-    <row r="98" spans="2:33">
-      <c r="B98">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="C98">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="D98">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="E98">
-        <v>4</v>
-      </c>
-      <c r="F98">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="G98">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="H98">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="I98">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="J98">
-        <v>5</v>
-      </c>
-      <c r="K98">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="L98">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="M98">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="P98">
-        <v>5</v>
-      </c>
-      <c r="Q98">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="R98">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="S98">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="T98">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="U98">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="V98">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="W98">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="X98">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="Y98">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="Z98">
-        <v>5</v>
-      </c>
-      <c r="AA98">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AB98">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AC98">
-        <v>1</v>
-      </c>
-      <c r="AD98">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="AE98">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AF98">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AG98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:33">
-      <c r="B99">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="C99">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="D99">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="E99">
-        <v>2</v>
-      </c>
-      <c r="F99">
-        <v>5</v>
-      </c>
-      <c r="G99">
-        <v>7</v>
-      </c>
-      <c r="H99">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="I99">
-        <v>6</v>
-      </c>
-      <c r="J99">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="K99">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="L99">
-        <v>3</v>
-      </c>
-      <c r="M99">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="N99">
-        <v>5</v>
-      </c>
-      <c r="O99">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="P99">
-        <v>9.21954445729288</v>
-      </c>
-      <c r="Q99">
-        <v>9.89949493661166</v>
-      </c>
-      <c r="R99">
-        <v>1</v>
-      </c>
-      <c r="S99">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="T99">
-        <v>1</v>
-      </c>
-      <c r="U99">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="V99">
-        <v>5</v>
-      </c>
-      <c r="W99">
-        <v>2</v>
-      </c>
-      <c r="X99">
-        <v>8.6023252670426196</v>
-      </c>
-      <c r="Y99">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="Z99">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="AA99">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AB99">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="AC99">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AD99">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="AE99">
-        <v>6.7082039324993596</v>
-      </c>
-      <c r="AF99">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="AG99">
-        <v>6.3245553203367502</v>
-      </c>
-    </row>
-    <row r="100" spans="2:33">
-      <c r="B100">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="E100">
-        <v>3</v>
-      </c>
-      <c r="F100">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="G100">
-        <v>2</v>
-      </c>
-      <c r="H100">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="I100">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="J100">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="K100">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="L100">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="M100">
-        <v>3</v>
-      </c>
-      <c r="N100">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="O100">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="P100">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="Q100">
-        <v>7.2801098892805101</v>
-      </c>
-      <c r="R100">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="S100">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="T100">
-        <v>4</v>
-      </c>
-      <c r="U100">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="V100">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="W100">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="X100">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="Y100">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="Z100">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AA100">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AB100">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="AC100">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="AD100">
-        <v>1</v>
-      </c>
-      <c r="AE100">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="AF100">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="AG100">
-        <v>6.7082039324993596</v>
-      </c>
-    </row>
-    <row r="101" spans="2:33">
-      <c r="B101">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="C101">
-        <v>3</v>
-      </c>
-      <c r="D101">
-        <v>4</v>
-      </c>
-      <c r="E101">
-        <v>2</v>
-      </c>
-      <c r="F101">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="G101">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="H101">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="I101">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="J101">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="K101">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="L101">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="M101">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="N101">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="O101">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="P101">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="Q101">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="R101">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="S101">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="T101">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="U101">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="V101">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="W101">
-        <v>2</v>
-      </c>
-      <c r="X101">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="Y101">
-        <v>5</v>
-      </c>
-      <c r="Z101">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="AA101">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AB101">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="AC101">
-        <v>1</v>
-      </c>
-      <c r="AD101">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AE101">
-        <v>4.1231056256176597</v>
-      </c>
-      <c r="AF101">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="AG101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="2:33">
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="E102">
-        <v>5</v>
-      </c>
-      <c r="F102">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="G102">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="H102">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="I102">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="J102">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="K102">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="L102">
-        <v>5.0990195135927801</v>
-      </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <v>2</v>
-      </c>
-      <c r="O102">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="P102">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="Q102">
-        <v>3.6055512754639798</v>
-      </c>
-      <c r="R102">
-        <v>5.8309518948452999</v>
-      </c>
-      <c r="S102">
-        <v>5</v>
-      </c>
-      <c r="T102">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="U102">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="V102">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="W102">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="X102">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="Y102">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="Z102">
-        <v>2</v>
-      </c>
-      <c r="AA102">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AB102">
-        <v>5</v>
-      </c>
-      <c r="AC102">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AD102">
-        <v>3</v>
-      </c>
-      <c r="AE102">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="AF102">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="AG102">
-        <v>3.6055512754639798</v>
-      </c>
-    </row>
-    <row r="103" spans="2:33">
-      <c r="B103">
-        <v>5.3851648071345002</v>
-      </c>
-      <c r="C103">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="D103">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="E103">
-        <v>7.2801098892805101</v>
-      </c>
-      <c r="F103">
-        <v>2</v>
-      </c>
-      <c r="G103">
-        <v>9.89949493661166</v>
-      </c>
-      <c r="H103">
-        <v>9.21954445729288</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103">
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="K103">
-        <v>1.41421356237309</v>
-      </c>
-      <c r="L103">
-        <v>4</v>
-      </c>
-      <c r="M103">
-        <v>6.4031242374328396</v>
-      </c>
-      <c r="N103">
-        <v>4.2426406871192803</v>
-      </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-      <c r="P103">
-        <v>6</v>
-      </c>
-      <c r="Q103">
-        <v>7</v>
-      </c>
-      <c r="R103">
-        <v>6</v>
-      </c>
-      <c r="S103">
-        <v>6.0827625302982096</v>
-      </c>
-      <c r="T103">
-        <v>7.0710678118654702</v>
-      </c>
-      <c r="U103">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="V103">
-        <v>5.6568542494923797</v>
-      </c>
-      <c r="W103">
-        <v>5</v>
-      </c>
-      <c r="X103">
-        <v>7.2801098892805101</v>
-      </c>
-      <c r="Y103">
-        <v>6.3245553203367502</v>
-      </c>
-      <c r="Z103">
-        <v>7.6157731058638998</v>
-      </c>
-      <c r="AA103">
-        <v>7.2111025509279703</v>
-      </c>
-      <c r="AB103">
-        <v>1</v>
-      </c>
-      <c r="AC103">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AD103">
-        <v>7.8102496759066504</v>
-      </c>
-      <c r="AE103">
-        <v>3.1622776601683702</v>
-      </c>
-      <c r="AF103">
-        <v>5</v>
-      </c>
-      <c r="AG103">
-        <v>2.2360679774997898</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
